--- a/Photostagram API 설계.xlsx
+++ b/Photostagram API 설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\WorkSpace\Photostagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\Workspace\Photostagram_\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,104 @@
   </si>
   <si>
     <t>프로필 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Photostagram/respCmtRegister</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조광호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Photostagram/CmtRegister</t>
+  </si>
+  <si>
+    <t>답글 작성 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Photostagram/ArticleLikeAdd</t>
+  </si>
+  <si>
+    <t>게시글 좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Photostagram/DeleteArticleLike</t>
+  </si>
+  <si>
+    <t>/Photostagram/CommentLikeAdd</t>
+  </si>
+  <si>
+    <t>/Photostagram/CommentLikeDel</t>
+  </si>
+  <si>
+    <t>/Photostagram/follow</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 좋아요 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">답글 작성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 좋아요 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 팔로잉 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 팔로잉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Photostagram/deleteComment</t>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Photostagram/insertBook</t>
+  </si>
+  <si>
+    <t>게시글 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시글 좋아요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Photostagram/deleteBook</t>
+  </si>
+  <si>
+    <t>게시글 저장 취소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,6 +489,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,7 +846,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -759,7 +863,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -1191,12 +1295,185 @@
         <v>45</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1048576" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1315,18 +1592,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1346,6 +1623,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305CDDD2-5EEF-4FF9-9584-902F68B12982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE3480B-5504-4F1A-8E81-8AF0C8D9879C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1358,12 +1643,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305CDDD2-5EEF-4FF9-9584-902F68B12982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>